--- a/Index/GP Nr. 22-23.xlsx
+++ b/Index/GP Nr. 22-23.xlsx
@@ -1375,6 +1375,9 @@
       <c r="K20" t="n">
         <v>126.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2315,6 +2318,9 @@
       <c r="K20" t="n">
         <v>141.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3515,6 +3521,9 @@
       <c r="K20" t="n">
         <v>113.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>115.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4455,6 +4464,9 @@
       <c r="K20" t="n">
         <v>141.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5395,6 +5407,9 @@
       <c r="K20" t="n">
         <v>151.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6335,6 +6350,9 @@
       <c r="K20" t="n">
         <v>232.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>220.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7535,6 +7553,9 @@
       <c r="K20" t="n">
         <v>155.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8475,6 +8496,9 @@
       <c r="K20" t="n">
         <v>138.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>139.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9415,6 +9439,9 @@
       <c r="K20" t="n">
         <v>145</v>
       </c>
+      <c r="L20" t="n">
+        <v>146.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10615,6 +10642,9 @@
       <c r="K20" t="n">
         <v>138.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11555,6 +11585,9 @@
       <c r="K20" t="n">
         <v>113</v>
       </c>
+      <c r="L20" t="n">
+        <v>114.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12495,6 +12528,9 @@
       <c r="K20" t="n">
         <v>127.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13435,6 +13471,9 @@
       <c r="K20" t="n">
         <v>137.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14375,6 +14414,9 @@
       <c r="K20" t="n">
         <v>132.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15315,6 +15357,9 @@
       <c r="K20" t="n">
         <v>136.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16255,6 +16300,9 @@
       <c r="K20" t="n">
         <v>130.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>130.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17195,6 +17243,9 @@
       <c r="K20" t="n">
         <v>126.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18135,6 +18186,9 @@
       <c r="K20" t="n">
         <v>128.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>129.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19075,6 +19129,9 @@
       <c r="K20" t="n">
         <v>140.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20015,6 +20072,9 @@
       <c r="K20" t="n">
         <v>108.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>111.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20955,6 +21015,9 @@
       <c r="K20" t="n">
         <v>123.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21895,6 +21958,9 @@
       <c r="K20" t="n">
         <v>149.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22835,6 +22901,9 @@
       <c r="K20" t="n">
         <v>135.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23905,6 +23974,9 @@
       <c r="K20" t="n">
         <v>141.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>139.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24845,6 +24917,9 @@
       <c r="K20" t="n">
         <v>169</v>
       </c>
+      <c r="L20" t="n">
+        <v>172.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25785,6 +25860,9 @@
       <c r="K20" t="n">
         <v>187.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>190.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26725,6 +26803,9 @@
       <c r="K20" t="n">
         <v>134.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>137.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27665,6 +27746,9 @@
       <c r="K20" t="n">
         <v>138.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>139.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28605,6 +28689,9 @@
       <c r="K20" t="n">
         <v>143.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29545,6 +29632,9 @@
       <c r="K20" t="n">
         <v>141.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>142.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30485,6 +30575,9 @@
       <c r="K20" t="n">
         <v>135.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31425,6 +31518,9 @@
       <c r="K20" t="n">
         <v>126.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32365,6 +32461,9 @@
       <c r="K20" t="n">
         <v>122.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>122.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33305,6 +33404,9 @@
       <c r="K20" t="n">
         <v>135.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34375,6 +34477,9 @@
       <c r="K20" t="n">
         <v>129</v>
       </c>
+      <c r="L20" t="n">
+        <v>129.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35316,6 +35421,9 @@
       <c r="K20" t="n">
         <v>118.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>118.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36256,6 +36364,9 @@
       <c r="K20" t="n">
         <v>139.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37196,6 +37307,9 @@
       <c r="K20" t="n">
         <v>126.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38136,6 +38250,9 @@
       <c r="K20" t="n">
         <v>140.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39077,6 +39194,9 @@
       <c r="K20" t="n">
         <v>144.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40017,6 +40137,9 @@
       <c r="K20" t="n">
         <v>138.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40957,6 +41080,9 @@
       <c r="K20" t="n">
         <v>124.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>125.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41897,6 +42023,9 @@
       <c r="K20" t="n">
         <v>126</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42837,6 +42966,9 @@
       <c r="K20" t="n">
         <v>135</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43777,6 +43909,9 @@
       <c r="K20" t="n">
         <v>127.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Index/GP Nr. 22-23.xlsx
+++ b/Index/GP Nr. 22-23.xlsx
@@ -1,57 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GP = 22" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GP = 22 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GP = 22 11 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GP = 22 11 11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GP = 22 11 13" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GP = 22 19" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GP = 22 2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GP = 22 21" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="GP = 22 22" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="GP = 22 23" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GP = 22 29" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="GP = 23" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="GP = 23 1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="GP = 23 11" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="GP = 23 12" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="GP = 23 13" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="GP = 23 13 11 400500" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="GP = 23 14" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="GP = 23 19" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="GP = 23 2" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="GP = 23 3" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="GP = 23 31" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="GP = 23 32" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="GP = 23 4" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="GP = 23 41" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="GP = 23 42" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="GP = 23 43" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="GP = 23 44" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="GP = 23 5" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="GP = 23 51" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="GP = 23 52" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="GP = 23 52 1" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="GP = 23 52 2" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="GP = 23 6" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="GP = 23 61" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="GP = 23 62" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="GP = 23 63" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="GP = 23 64" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="GP = 23 65" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="GP = 23 69" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="GP = 23 7" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="GP = 23 9" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="GP = 23 91" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="GP = 23 99" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="GP = 23 99 13 200" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22 11 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22 11 11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22 11 13" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22 19" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22 2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22 21" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22 22" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22 23" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 22 29" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 11" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 12" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 13" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 13 11 400500" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 14" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 19" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 2" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 3" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 31" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 32" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 4" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 41" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 42" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 43" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 44" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 5" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 51" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 52" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 52 1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 52 2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 6" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 61" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 62" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 63" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 64" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 65" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 69" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 7" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 9" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 91" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 99" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 23 99 13 200" sheetId="45" state="visible" r:id="rId45"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1378,6 +1378,12 @@
       <c r="L20" t="n">
         <v>126.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>122.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2321,6 +2327,12 @@
       <c r="L20" t="n">
         <v>141</v>
       </c>
+      <c r="M20" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3524,6 +3536,12 @@
       <c r="L20" t="n">
         <v>115.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4467,6 +4485,12 @@
       <c r="L20" t="n">
         <v>142</v>
       </c>
+      <c r="M20" t="n">
+        <v>142</v>
+      </c>
+      <c r="N20" t="n">
+        <v>132.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5410,6 +5434,12 @@
       <c r="L20" t="n">
         <v>152.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6353,6 +6383,12 @@
       <c r="L20" t="n">
         <v>220.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7556,6 +7592,12 @@
       <c r="L20" t="n">
         <v>158.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8499,6 +8541,12 @@
       <c r="L20" t="n">
         <v>139.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>141</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9442,6 +9490,12 @@
       <c r="L20" t="n">
         <v>146.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10645,6 +10699,12 @@
       <c r="L20" t="n">
         <v>135.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11588,6 +11648,12 @@
       <c r="L20" t="n">
         <v>114.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>115</v>
+      </c>
+      <c r="N20" t="n">
+        <v>111.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12531,6 +12597,12 @@
       <c r="L20" t="n">
         <v>128.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>122.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13474,6 +13546,12 @@
       <c r="L20" t="n">
         <v>139</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14417,6 +14495,12 @@
       <c r="L20" t="n">
         <v>133.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15360,6 +15444,12 @@
       <c r="L20" t="n">
         <v>139.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16303,6 +16393,12 @@
       <c r="L20" t="n">
         <v>130.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>123.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17246,6 +17342,12 @@
       <c r="L20" t="n">
         <v>127.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>122.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18189,6 +18291,12 @@
       <c r="L20" t="n">
         <v>129.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19132,6 +19240,12 @@
       <c r="L20" t="n">
         <v>145.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20075,6 +20189,12 @@
       <c r="L20" t="n">
         <v>111.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>108.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21018,6 +21138,12 @@
       <c r="L20" t="n">
         <v>123.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21961,6 +22087,12 @@
       <c r="L20" t="n">
         <v>149</v>
       </c>
+      <c r="M20" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22904,6 +23036,12 @@
       <c r="L20" t="n">
         <v>135.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23977,6 +24115,12 @@
       <c r="L20" t="n">
         <v>139.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24920,6 +25064,12 @@
       <c r="L20" t="n">
         <v>172.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25863,6 +26013,12 @@
       <c r="L20" t="n">
         <v>190.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>162.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26806,6 +26962,12 @@
       <c r="L20" t="n">
         <v>137.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27749,6 +27911,12 @@
       <c r="L20" t="n">
         <v>139.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28692,6 +28860,12 @@
       <c r="L20" t="n">
         <v>144.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29635,6 +29809,12 @@
       <c r="L20" t="n">
         <v>142.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>144</v>
+      </c>
+      <c r="N20" t="n">
+        <v>135.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30578,6 +30758,12 @@
       <c r="L20" t="n">
         <v>135.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31521,6 +31707,12 @@
       <c r="L20" t="n">
         <v>127.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>120.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32464,6 +32656,12 @@
       <c r="L20" t="n">
         <v>122.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33407,6 +33605,12 @@
       <c r="L20" t="n">
         <v>135.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34480,6 +34684,12 @@
       <c r="L20" t="n">
         <v>129.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>123.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35424,6 +35634,12 @@
       <c r="L20" t="n">
         <v>118.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36367,6 +36583,12 @@
       <c r="L20" t="n">
         <v>140.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37310,6 +37532,12 @@
       <c r="L20" t="n">
         <v>126.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38253,6 +38481,12 @@
       <c r="L20" t="n">
         <v>141.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39197,6 +39431,12 @@
       <c r="L20" t="n">
         <v>142.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40140,6 +40380,12 @@
       <c r="L20" t="n">
         <v>138.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41083,6 +41329,12 @@
       <c r="L20" t="n">
         <v>125.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42026,6 +42278,12 @@
       <c r="L20" t="n">
         <v>126.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42969,6 +43227,12 @@
       <c r="L20" t="n">
         <v>135.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43912,6 +44176,12 @@
       <c r="L20" t="n">
         <v>127.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
